--- a/evaluation/results/isolation_forest/split_3/test_50_50/evaluation_metrics.xlsx
+++ b/evaluation/results/isolation_forest/split_3/test_50_50/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.7219101123595506</v>
+        <v>0.7172284644194756</v>
       </c>
       <c r="C2">
-        <v>0.8580060422960725</v>
+        <v>0.8493975903614458</v>
       </c>
       <c r="D2">
-        <v>0.5318352059925093</v>
+        <v>0.5280898876404494</v>
       </c>
       <c r="E2">
-        <v>0.6566473988439306</v>
+        <v>0.651270207852194</v>
       </c>
       <c r="F2">
-        <v>0.5755978921767329</v>
+        <v>0.5713128038897893</v>
       </c>
       <c r="G2">
-        <v>0.5397266281704554</v>
+        <v>0.5358865662914779</v>
       </c>
       <c r="H2">
-        <v>0.7219101123595505</v>
+        <v>0.7172284644194756</v>
       </c>
       <c r="I2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J2">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K2">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="L2">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.66078697421981</v>
+        <v>0.6576086956521739</v>
       </c>
       <c r="C2">
-        <v>0.9119850187265918</v>
+        <v>0.9063670411985019</v>
       </c>
       <c r="D2">
-        <v>0.7663257277734068</v>
+        <v>0.7622047244094489</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.8580060422960725</v>
+        <v>0.8493975903614458</v>
       </c>
       <c r="C3">
-        <v>0.5318352059925093</v>
+        <v>0.5280898876404494</v>
       </c>
       <c r="D3">
-        <v>0.6566473988439306</v>
+        <v>0.651270207852194</v>
       </c>
       <c r="E3">
         <v>534</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.7219101123595506</v>
+        <v>0.7172284644194756</v>
       </c>
       <c r="C4">
-        <v>0.7219101123595506</v>
+        <v>0.7172284644194756</v>
       </c>
       <c r="D4">
-        <v>0.7219101123595506</v>
+        <v>0.7172284644194756</v>
       </c>
       <c r="E4">
-        <v>0.7219101123595506</v>
+        <v>0.7172284644194756</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.7593965082579412</v>
+        <v>0.7535031430068099</v>
       </c>
       <c r="C5">
-        <v>0.7219101123595506</v>
+        <v>0.7172284644194756</v>
       </c>
       <c r="D5">
-        <v>0.7114865633086687</v>
+        <v>0.7067374661308214</v>
       </c>
       <c r="E5">
         <v>1068</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.7593965082579414</v>
+        <v>0.7535031430068099</v>
       </c>
       <c r="C6">
-        <v>0.7219101123595506</v>
+        <v>0.7172284644194756</v>
       </c>
       <c r="D6">
-        <v>0.7114865633086687</v>
+        <v>0.7067374661308214</v>
       </c>
       <c r="E6">
         <v>1068</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C2">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C3">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>

--- a/evaluation/results/isolation_forest/split_3/test_50_50/evaluation_metrics.xlsx
+++ b/evaluation/results/isolation_forest/split_3/test_50_50/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.7172284644194756</v>
+        <v>0.7237827715355806</v>
       </c>
       <c r="C2">
-        <v>0.8493975903614458</v>
+        <v>0.9345454545454546</v>
       </c>
       <c r="D2">
-        <v>0.5280898876404494</v>
+        <v>0.4812734082397004</v>
       </c>
       <c r="E2">
-        <v>0.651270207852194</v>
+        <v>0.6353522867737948</v>
       </c>
       <c r="F2">
-        <v>0.5713128038897893</v>
+        <v>0.5329738697635836</v>
       </c>
       <c r="G2">
-        <v>0.5358865662914779</v>
+        <v>0.4904220183486239</v>
       </c>
       <c r="H2">
-        <v>0.7172284644194756</v>
+        <v>0.7237827715355806</v>
       </c>
       <c r="I2">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="J2">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K2">
-        <v>484</v>
+        <v>516</v>
       </c>
       <c r="L2">
-        <v>252</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.6576086956521739</v>
+        <v>0.6506935687263556</v>
       </c>
       <c r="C2">
-        <v>0.9063670411985019</v>
+        <v>0.9662921348314607</v>
       </c>
       <c r="D2">
-        <v>0.7622047244094489</v>
+        <v>0.7776940467219292</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.8493975903614458</v>
+        <v>0.9345454545454546</v>
       </c>
       <c r="C3">
-        <v>0.5280898876404494</v>
+        <v>0.4812734082397004</v>
       </c>
       <c r="D3">
-        <v>0.651270207852194</v>
+        <v>0.6353522867737948</v>
       </c>
       <c r="E3">
         <v>534</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.7172284644194756</v>
+        <v>0.7237827715355806</v>
       </c>
       <c r="C4">
-        <v>0.7172284644194756</v>
+        <v>0.7237827715355806</v>
       </c>
       <c r="D4">
-        <v>0.7172284644194756</v>
+        <v>0.7237827715355806</v>
       </c>
       <c r="E4">
-        <v>0.7172284644194756</v>
+        <v>0.7237827715355806</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.7535031430068099</v>
+        <v>0.7926195116359052</v>
       </c>
       <c r="C5">
-        <v>0.7172284644194756</v>
+        <v>0.7237827715355806</v>
       </c>
       <c r="D5">
-        <v>0.7067374661308214</v>
+        <v>0.706523166747862</v>
       </c>
       <c r="E5">
         <v>1068</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.7535031430068099</v>
+        <v>0.7926195116359052</v>
       </c>
       <c r="C6">
-        <v>0.7172284644194756</v>
+        <v>0.7237827715355806</v>
       </c>
       <c r="D6">
-        <v>0.7067374661308214</v>
+        <v>0.7065231667478621</v>
       </c>
       <c r="E6">
         <v>1068</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>484</v>
+        <v>516</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="C3">
-        <v>282</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>

--- a/evaluation/results/isolation_forest/split_3/test_50_50/evaluation_metrics.xlsx
+++ b/evaluation/results/isolation_forest/split_3/test_50_50/evaluation_metrics.xlsx
@@ -518,7 +518,7 @@
         <v>0.4904220183486239</v>
       </c>
       <c r="H2">
-        <v>0.7237827715355806</v>
+        <v>0.7950753271893281</v>
       </c>
       <c r="I2">
         <v>257</v>

--- a/evaluation/results/isolation_forest/split_3/test_50_50/evaluation_metrics.xlsx
+++ b/evaluation/results/isolation_forest/split_3/test_50_50/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.7237827715355806</v>
+        <v>0.602996254681648</v>
       </c>
       <c r="C2">
-        <v>0.9345454545454546</v>
+        <v>0.5625</v>
       </c>
       <c r="D2">
-        <v>0.4812734082397004</v>
+        <v>0.9269662921348315</v>
       </c>
       <c r="E2">
-        <v>0.6353522867737948</v>
+        <v>0.7001414427157001</v>
       </c>
       <c r="F2">
-        <v>0.5329738697635836</v>
+        <v>0.8206233421750663</v>
       </c>
       <c r="G2">
-        <v>0.4904220183486239</v>
+        <v>0.9044272663387211</v>
       </c>
       <c r="H2">
-        <v>0.7950753271893281</v>
+        <v>0.7682777146544348</v>
       </c>
       <c r="I2">
-        <v>257</v>
+        <v>495</v>
       </c>
       <c r="J2">
-        <v>18</v>
+        <v>385</v>
       </c>
       <c r="K2">
-        <v>516</v>
+        <v>149</v>
       </c>
       <c r="L2">
-        <v>277</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.6506935687263556</v>
+        <v>0.7925531914893617</v>
       </c>
       <c r="C2">
-        <v>0.9662921348314607</v>
+        <v>0.2790262172284644</v>
       </c>
       <c r="D2">
-        <v>0.7776940467219292</v>
+        <v>0.4127423822714681</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.9345454545454546</v>
+        <v>0.5625</v>
       </c>
       <c r="C3">
-        <v>0.4812734082397004</v>
+        <v>0.9269662921348315</v>
       </c>
       <c r="D3">
-        <v>0.6353522867737948</v>
+        <v>0.7001414427157001</v>
       </c>
       <c r="E3">
         <v>534</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.7237827715355806</v>
+        <v>0.602996254681648</v>
       </c>
       <c r="C4">
-        <v>0.7237827715355806</v>
+        <v>0.602996254681648</v>
       </c>
       <c r="D4">
-        <v>0.7237827715355806</v>
+        <v>0.602996254681648</v>
       </c>
       <c r="E4">
-        <v>0.7237827715355806</v>
+        <v>0.602996254681648</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.7926195116359052</v>
+        <v>0.6775265957446808</v>
       </c>
       <c r="C5">
-        <v>0.7237827715355806</v>
+        <v>0.602996254681648</v>
       </c>
       <c r="D5">
-        <v>0.706523166747862</v>
+        <v>0.5564419124935841</v>
       </c>
       <c r="E5">
         <v>1068</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.7926195116359052</v>
+        <v>0.6775265957446808</v>
       </c>
       <c r="C6">
-        <v>0.7237827715355806</v>
+        <v>0.602996254681648</v>
       </c>
       <c r="D6">
-        <v>0.7065231667478621</v>
+        <v>0.5564419124935841</v>
       </c>
       <c r="E6">
         <v>1068</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>516</v>
+        <v>149</v>
       </c>
       <c r="C2">
-        <v>18</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>277</v>
+        <v>39</v>
       </c>
       <c r="C3">
-        <v>257</v>
+        <v>495</v>
       </c>
     </row>
   </sheetData>
